--- a/senado_viajes/originales/viajes_2016.xlsx
+++ b/senado_viajes/originales/viajes_2016.xlsx
@@ -217,6 +217,9 @@
     <t xml:space="preserve">Encuentro Anual Mujeres Parlamericas</t>
   </si>
   <si>
+    <t xml:space="preserve">Frente Cívico por Santiago</t>
+  </si>
+  <si>
     <t xml:space="preserve">DURANGO, Norma Haydée</t>
   </si>
   <si>
@@ -503,9 +506,6 @@
   </si>
   <si>
     <t xml:space="preserve">13/10 al 17/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frente Cívico por Santiago</t>
   </si>
   <si>
     <t xml:space="preserve">3769/2016</t>
@@ -842,7 +842,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -936,8 +936,8 @@
   </sheetPr>
   <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1310,12 +1310,12 @@
         <v>64</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>61</v>
@@ -1324,7 +1324,7 @@
         <v>62</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="7" t="n">
@@ -1334,12 +1334,12 @@
         <v>64</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>61</v>
@@ -1348,7 +1348,7 @@
         <v>62</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="7" t="n">
@@ -1363,7 +1363,7 @@
     </row>
     <row r="18" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>61</v>
@@ -1382,7 +1382,7 @@
         <v>64</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1390,20 +1390,20 @@
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E19" s="7" t="n">
         <v>2100</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>13</v>
@@ -1411,47 +1411,47 @@
     </row>
     <row r="20" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E20" s="7" t="n">
         <v>2100</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E21" s="7" t="n">
         <v>1500</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>54</v>
@@ -1459,23 +1459,23 @@
     </row>
     <row r="22" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="E22" s="7" t="n">
         <v>1500</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>50</v>
@@ -1483,23 +1483,23 @@
     </row>
     <row r="23" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E23" s="7" t="n">
         <v>1500</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>16</v>
@@ -1510,20 +1510,20 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E24" s="7" t="n">
         <v>1500</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>27</v>
@@ -1531,23 +1531,23 @@
     </row>
     <row r="25" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E25" s="7" t="n">
         <v>900</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>16</v>
@@ -1555,16 +1555,16 @@
     </row>
     <row r="26" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7" t="n">
@@ -1579,16 +1579,16 @@
     </row>
     <row r="27" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="7" t="n">
@@ -1598,21 +1598,21 @@
         <v>21</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="7" t="n">
@@ -1630,13 +1630,13 @@
         <v>8</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="7" t="n">
@@ -1651,16 +1651,16 @@
     </row>
     <row r="30" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="7" t="n">
@@ -1675,16 +1675,16 @@
     </row>
     <row r="31" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="7" t="n">
@@ -1694,7 +1694,7 @@
         <v>12</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1702,13 +1702,13 @@
         <v>17</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="7" t="n">
@@ -1723,16 +1723,16 @@
     </row>
     <row r="33" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7" t="n">
@@ -1750,13 +1750,13 @@
         <v>17</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="n">
@@ -1774,20 +1774,20 @@
         <v>8</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="n">
         <v>400</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>13</v>
@@ -1795,16 +1795,16 @@
     </row>
     <row r="36" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7" t="n">
@@ -1822,13 +1822,13 @@
         <v>55</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="7" t="n">
@@ -1843,16 +1843,16 @@
     </row>
     <row r="38" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="7" t="n">
@@ -1870,13 +1870,13 @@
         <v>17</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="13" t="n">
@@ -1891,26 +1891,26 @@
     </row>
     <row r="40" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="13" t="n">
         <v>1800</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1918,13 +1918,13 @@
         <v>45</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="13" t="n">
@@ -1942,13 +1942,13 @@
         <v>52</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="13" t="n">
@@ -1966,13 +1966,13 @@
         <v>30</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="13" t="n">
@@ -1987,16 +1987,16 @@
     </row>
     <row r="44" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="13" t="n">
@@ -2014,20 +2014,20 @@
         <v>14</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="13" t="n">
         <v>400</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>16</v>
@@ -2035,47 +2035,47 @@
     </row>
     <row r="46" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="13" t="n">
         <v>1000</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="13" t="n">
         <v>800</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>54</v>
@@ -2083,47 +2083,47 @@
     </row>
     <row r="48" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="13" t="n">
         <v>1350</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E49" s="7" t="n">
         <v>2100</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>27</v>
@@ -2131,146 +2131,146 @@
     </row>
     <row r="50" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E50" s="7" t="n">
         <v>2100</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E51" s="7" t="n">
         <v>1500</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="13" t="n">
         <v>600</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="13" t="n">
         <v>800</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="13" t="n">
         <v>750</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="13" t="n">
         <v>1250</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2284,14 +2284,14 @@
         <v>163</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E56" s="7" t="n">
         <v>2100</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>164</v>
@@ -2315,7 +2315,7 @@
         <v>750</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>167</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="58" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>168</v>
@@ -2339,7 +2339,7 @@
         <v>1000</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>54</v>
@@ -2353,7 +2353,7 @@
         <v>171</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>172</v>
@@ -2366,18 +2366,18 @@
         <v>173</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>171</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>174</v>
@@ -2438,12 +2438,12 @@
         <v>178</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>181</v>
@@ -2510,7 +2510,7 @@
         <v>194</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2563,7 +2563,7 @@
     </row>
     <row r="68" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>200</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="69" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>200</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="70" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>200</v>
@@ -2630,18 +2630,18 @@
         <v>21</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>202</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>203</v>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="72" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>206</v>
